--- a/AAII_Financials/Quarterly/HLLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="92">
   <si>
     <t>HLLY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,43 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,42 +711,48 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>159700</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>94500</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -768,13 +775,16 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>65200</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -797,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,13 +823,14 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>7100</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>3</v>
@@ -839,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,25 +885,28 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -897,37 +917,43 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>3600</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,25 +962,26 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>159200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+      <c r="H17" s="3">
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -965,22 +992,25 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
+      <c r="D18" s="3">
+        <v>500</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -994,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,22 +1040,23 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1036,8 +1070,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1065,54 +1102,60 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>9900</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4400</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="H23" s="3">
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1123,37 +1166,43 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>-3300</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,25 +1230,28 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4400</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="H26" s="3">
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1210,25 +1262,28 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4400</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1239,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,22 +1422,25 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>3700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1384,25 +1454,28 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4400</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="H33" s="3">
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,25 +1518,28 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4400</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1471,31 +1550,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1587,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,23 +1617,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1647,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,84 +1679,93 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>55400</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>164300</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>8900</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,26 +1775,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>282600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,13 +1807,16 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>250100</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
         <v>250100</v>
@@ -1719,8 +1824,8 @@
       <c r="F47" s="3">
         <v>250100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>250100</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1734,66 +1839,75 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>50400</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>803700</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,8 +1967,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1879,8 +1999,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,26 +2031,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1136700</v>
+      </c>
+      <c r="E54" s="3">
         <v>251100</v>
-      </c>
-      <c r="E54" s="3">
-        <v>251500</v>
       </c>
       <c r="F54" s="3">
         <v>251500</v>
       </c>
       <c r="G54" s="3">
+        <v>251500</v>
+      </c>
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,42 +2093,46 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>46600</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>5500</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2006,12 +2140,12 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,23 +2155,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E59" s="3">
         <v>41500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>29000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,26 +2187,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>101600</v>
+      </c>
+      <c r="E60" s="3">
         <v>41500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>29000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>26100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,13 +2219,16 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>570400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2108,37 +2251,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>144900</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,26 +2379,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>816900</v>
+      </c>
+      <c r="E66" s="3">
         <v>41500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>29000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>26100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,25 +2553,28 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-20300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4400</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="H72" s="3">
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,25 +2681,28 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>319800</v>
+      </c>
+      <c r="E76" s="3">
         <v>209600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>222400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>225400</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,31 +2745,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,25 +2782,28 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4400</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2619,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,8 +2830,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2661,8 +2860,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,25 +3020,28 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2835,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,8 +3068,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2877,8 +3098,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,8 +3162,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2964,8 +3194,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,8 +3336,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3104,14 +3350,14 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3">
         <v>251600</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3122,8 +3368,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,25 +3400,28 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3178,6 +3430,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLLY_QTR_FIN.xlsx
@@ -2565,13 +2565,13 @@
         <v>-7000</v>
       </c>
       <c r="E72" s="3">
-        <v>-20300</v>
+        <v>-40500</v>
       </c>
       <c r="F72" s="3">
-        <v>-7500</v>
+        <v>-27700</v>
       </c>
       <c r="G72" s="3">
-        <v>-4400</v>
+        <v>-24600</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/HLLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>HLLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,45 +665,45 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44465</v>
       </c>
-      <c r="E7" s="2">
-        <v>44377</v>
-      </c>
       <c r="F7" s="2">
-        <v>44286</v>
+        <v>44283</v>
       </c>
       <c r="G7" s="2">
         <v>44196</v>
       </c>
       <c r="H7" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
+        <v>44101</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43918</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
@@ -714,60 +714,66 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>179800</v>
+      </c>
+      <c r="E8" s="3">
         <v>159700</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+      <c r="F8" s="3">
+        <v>160300</v>
+      </c>
+      <c r="G8" s="3">
+        <v>138400</v>
+      </c>
+      <c r="H8" s="3">
+        <v>133300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>107200</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>105100</v>
+      </c>
+      <c r="E9" s="3">
         <v>94500</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+      <c r="F9" s="3">
+        <v>94700</v>
+      </c>
+      <c r="G9" s="3">
+        <v>83900</v>
+      </c>
+      <c r="H9" s="3">
+        <v>77800</v>
+      </c>
+      <c r="I9" s="3">
+        <v>63800</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -778,28 +784,31 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>74700</v>
+      </c>
+      <c r="E10" s="3">
         <v>65200</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+      <c r="F10" s="3">
+        <v>65600</v>
+      </c>
+      <c r="G10" s="3">
+        <v>54500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>55500</v>
+      </c>
+      <c r="I10" s="3">
+        <v>43400</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -810,8 +819,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,28 +836,29 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E12" s="3">
         <v>7100</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+      <c r="F12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5600</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -856,8 +869,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,28 +904,31 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E14" s="3">
         <v>25000</v>
       </c>
-      <c r="E14" s="3">
-        <v>1700</v>
-      </c>
       <c r="F14" s="3">
-        <v>2900</v>
+        <v>19700</v>
       </c>
       <c r="G14" s="3">
-        <v>800</v>
+        <v>7500</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+        <v>2000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2300</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -920,40 +939,46 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>3600</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
+      <c r="E15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2700</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,28 +988,29 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>169300</v>
+      </c>
+      <c r="E17" s="3">
         <v>159200</v>
       </c>
-      <c r="E17" s="3">
-        <v>1700</v>
-      </c>
       <c r="F17" s="3">
-        <v>2900</v>
+        <v>147600</v>
       </c>
       <c r="G17" s="3">
-        <v>800</v>
+        <v>125400</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>104900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>89500</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -995,28 +1021,31 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="F18" s="3">
+        <v>12700</v>
+      </c>
+      <c r="G18" s="3">
+        <v>13000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>28400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>17700</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1027,8 +1056,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,28 +1073,29 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-24200</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1073,28 +1106,31 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>1000</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+      <c r="F21" s="3">
+        <v>18400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>17900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="I21" s="3">
+        <v>22400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1105,60 +1141,66 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E22" s="3">
         <v>9900</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>11900</v>
+      </c>
+      <c r="H22" s="3">
+        <v>9300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>11500</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-33500</v>
       </c>
-      <c r="E23" s="3">
-        <v>-12900</v>
-      </c>
       <c r="F23" s="3">
-        <v>-3000</v>
+        <v>2700</v>
       </c>
       <c r="G23" s="3">
-        <v>-4400</v>
+        <v>1100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>19100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>6200</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1169,40 +1211,46 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3300</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1300</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,28 +1281,31 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-30200</v>
       </c>
-      <c r="E26" s="3">
-        <v>-12900</v>
-      </c>
       <c r="F26" s="3">
-        <v>-3000</v>
+        <v>-2100</v>
       </c>
       <c r="G26" s="3">
-        <v>-4400</v>
+        <v>2000</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>13500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>4900</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1265,28 +1316,31 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-30200</v>
       </c>
-      <c r="E27" s="3">
-        <v>-12900</v>
-      </c>
       <c r="F27" s="3">
-        <v>-3000</v>
+        <v>-2100</v>
       </c>
       <c r="G27" s="3">
-        <v>-4400</v>
+        <v>2000</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>13500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>4900</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1297,8 +1351,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1386,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1421,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1456,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,28 +1491,31 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E32" s="3">
         <v>24200</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1457,28 +1526,31 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-30200</v>
       </c>
-      <c r="E33" s="3">
-        <v>-12900</v>
-      </c>
       <c r="F33" s="3">
-        <v>-3000</v>
+        <v>-2100</v>
       </c>
       <c r="G33" s="3">
-        <v>-4400</v>
+        <v>2000</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>13500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>4900</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1489,8 +1561,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,28 +1596,31 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-30200</v>
       </c>
-      <c r="E35" s="3">
-        <v>-12900</v>
-      </c>
       <c r="F35" s="3">
-        <v>-3000</v>
+        <v>-2100</v>
       </c>
       <c r="G35" s="3">
-        <v>-4400</v>
+        <v>2000</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>13500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>4900</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1553,33 +1631,36 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44465</v>
       </c>
-      <c r="E38" s="2">
-        <v>44377</v>
-      </c>
       <c r="F38" s="2">
-        <v>44286</v>
+        <v>44283</v>
       </c>
       <c r="G38" s="2">
         <v>44196</v>
       </c>
       <c r="H38" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
+        <v>44101</v>
+      </c>
+      <c r="I38" s="2">
+        <v>43918</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
@@ -1590,8 +1671,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1688,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,22 +1703,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E41" s="3">
         <v>53900</v>
       </c>
-      <c r="E41" s="3">
-        <v>700</v>
-      </c>
       <c r="F41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1100</v>
+        <v>87500</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1650,8 +1736,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1682,19 +1771,22 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E43" s="3">
         <v>55400</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="3">
+        <v>55300</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1708,25 +1800,28 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E44" s="3">
         <v>164300</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+      <c r="F44" s="3">
+        <v>126200</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1740,31 +1835,34 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E45" s="3">
         <v>8900</v>
       </c>
-      <c r="E45" s="3">
-        <v>300</v>
-      </c>
       <c r="F45" s="3">
-        <v>300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
+        <v>6900</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1778,25 +1876,28 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>291700</v>
+      </c>
+      <c r="E46" s="3">
         <v>282600</v>
       </c>
-      <c r="E46" s="3">
-        <v>1000</v>
-      </c>
       <c r="F46" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H46" s="3">
-        <v>200</v>
+        <v>275800</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1810,31 +1911,34 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>250100</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>250100</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>250100</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -1842,19 +1946,22 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E48" s="3">
         <v>50400</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="3">
+        <v>44600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1868,25 +1975,28 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>849800</v>
+      </c>
+      <c r="E49" s="3">
         <v>803700</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>760300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1900,14 +2010,17 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2051,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,8 +2086,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2002,8 +2121,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,25 +2156,28 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1193100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1136700</v>
       </c>
-      <c r="E54" s="3">
-        <v>251100</v>
-      </c>
       <c r="F54" s="3">
-        <v>251500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>251500</v>
-      </c>
-      <c r="H54" s="3">
-        <v>200</v>
+        <v>1080700</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2066,8 +2191,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2208,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,19 +2223,20 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E57" s="3">
         <v>46600</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="3">
+        <v>36100</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2120,31 +2250,34 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E58" s="3">
         <v>5500</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>5500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2158,22 +2291,25 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E59" s="3">
         <v>49400</v>
       </c>
-      <c r="E59" s="3">
-        <v>41500</v>
-      </c>
       <c r="F59" s="3">
-        <v>29000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>26100</v>
+        <v>56500</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2190,25 +2326,28 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>91800</v>
+      </c>
+      <c r="E60" s="3">
         <v>101600</v>
       </c>
-      <c r="E60" s="3">
-        <v>41500</v>
-      </c>
       <c r="F60" s="3">
-        <v>29000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>26100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
+        <v>98200</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2222,19 +2361,22 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>637700</v>
+      </c>
+      <c r="E61" s="3">
         <v>570400</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>670100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2254,19 +2396,22 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>159100</v>
+      </c>
+      <c r="E62" s="3">
         <v>144900</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>74000</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2280,14 +2425,17 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2466,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2501,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,25 +2536,28 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>888600</v>
+      </c>
+      <c r="E66" s="3">
         <v>816900</v>
       </c>
-      <c r="E66" s="3">
-        <v>41500</v>
-      </c>
       <c r="F66" s="3">
-        <v>29000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>26100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>100</v>
+        <v>842300</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2414,8 +2571,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2588,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2621,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2656,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2524,8 +2691,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,25 +2726,28 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7000</v>
       </c>
-      <c r="E72" s="3">
-        <v>-40500</v>
-      </c>
       <c r="F72" s="3">
-        <v>-27700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-24600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2588,8 +2761,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2796,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +2831,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,25 +2866,28 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>304500</v>
+      </c>
+      <c r="E76" s="3">
         <v>319800</v>
       </c>
-      <c r="E76" s="3">
-        <v>209600</v>
-      </c>
       <c r="F76" s="3">
-        <v>222400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>225400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
+        <v>238400</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2716,8 +2901,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,33 +2936,36 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44465</v>
       </c>
-      <c r="E80" s="2">
-        <v>44377</v>
-      </c>
       <c r="F80" s="2">
-        <v>44286</v>
+        <v>44283</v>
       </c>
       <c r="G80" s="2">
         <v>44196</v>
       </c>
       <c r="H80" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
+        <v>44101</v>
+      </c>
+      <c r="I80" s="2">
+        <v>43918</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
@@ -2785,28 +2976,31 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-30200</v>
       </c>
-      <c r="E81" s="3">
-        <v>-12900</v>
-      </c>
       <c r="F81" s="3">
-        <v>-3000</v>
+        <v>-2100</v>
       </c>
       <c r="G81" s="3">
-        <v>-4400</v>
+        <v>2000</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>13500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>4900</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2817,8 +3011,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,31 +3028,32 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
+        <v>7800</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+        <v>4800</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>4700</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2863,8 +3061,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3096,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3131,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3166,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3201,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,28 +3236,31 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-300</v>
+      <c r="D89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>19000</v>
       </c>
       <c r="G89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>12800</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3">
+        <v>17600</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3055,8 +3271,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,31 +3288,32 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+        <v>-4800</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-3100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+        <v>-2800</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-1300</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3101,8 +3321,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3356,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,31 +3391,34 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+        <v>-62200</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-3100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+        <v>-158900</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-1300</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3197,8 +3426,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3443,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3476,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3511,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3546,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,28 +3581,31 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>47900</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+      <c r="F100" s="3">
+        <v>-100</v>
       </c>
       <c r="G100" s="3">
-        <v>251600</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>163000</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
+        <v>27500</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3371,8 +3616,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3403,28 +3651,31 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-300</v>
+      <c r="D102" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>15800</v>
       </c>
       <c r="G102" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>16900</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3">
+        <v>43800</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3433,6 +3684,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
   <si>
     <t>HLLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,190 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44654</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44283</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44101</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>179400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>200100</v>
+      </c>
+      <c r="F8" s="3">
         <v>179800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>159700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>160300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>138400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>133300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>107200</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>104100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>117300</v>
+      </c>
+      <c r="F9" s="3">
         <v>105100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>94500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>94700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>83900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>77800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>63800</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>82800</v>
+      </c>
+      <c r="F10" s="3">
         <v>74700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>65200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>65600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>54500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>55500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>43400</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,43 +862,51 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F12" s="3">
         <v>8100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>7100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>6300</v>
       </c>
       <c r="H12" s="3">
         <v>6000</v>
       </c>
       <c r="I12" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K12" s="3">
         <v>5600</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,78 +940,96 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>300</v>
+      </c>
+      <c r="F14" s="3">
         <v>14000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>25000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>19700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>7500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>2300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F15" s="3">
         <v>3600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>3600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>3300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>3000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>2700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>2700</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,78 +1040,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>154300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>164000</v>
+      </c>
+      <c r="F17" s="3">
         <v>169300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>159200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>147600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>125400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>104900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>89500</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>36100</v>
+      </c>
+      <c r="F18" s="3">
         <v>10500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>12700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>13000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>28400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>17700</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,34 +1139,36 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-17300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-24200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1109,148 +1176,178 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>37200</v>
+      </c>
+      <c r="F21" s="3">
         <v>1000</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>18400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>17900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>22400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F22" s="3">
         <v>8000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>9900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>10100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>11900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>9300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>11500</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-14800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-33500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>19100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>6200</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F24" s="3">
         <v>3200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-3300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>4800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>5500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,78 +1381,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-18000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-30200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>13500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>4900</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-18000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-30200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>13500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>4900</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1504,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1545,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1586,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,34 +1627,40 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F32" s="3">
         <v>17300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>24200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1529,43 +1668,55 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-18000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-30200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>13500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>4900</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,83 +1750,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-18000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-30200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>13500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>4900</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44654</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44283</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44101</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1858,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,26 +1875,28 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>44100</v>
+      </c>
+      <c r="F41" s="3">
         <v>36300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>53900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>87500</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1739,8 +1912,14 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1774,26 +1953,32 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>63700</v>
+      </c>
+      <c r="F43" s="3">
         <v>51400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>55400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>55300</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1803,32 +1988,38 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>214900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>191100</v>
+      </c>
+      <c r="F44" s="3">
         <v>185000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>164300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>126200</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1838,32 +2029,38 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F45" s="3">
         <v>19000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>8900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>6900</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,26 +2076,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>320500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>314300</v>
+      </c>
+      <c r="F46" s="3">
         <v>291700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>282600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>275800</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1914,8 +2117,14 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1940,35 +2149,41 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>88000</v>
+      </c>
+      <c r="F48" s="3">
         <v>51500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>50400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>44600</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1978,32 +2193,38 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>851500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>846400</v>
+      </c>
+      <c r="F49" s="3">
         <v>849800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>803700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>760300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2013,14 +2234,20 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2281,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,8 +2322,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2124,8 +2363,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,26 +2404,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1260800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1248700</v>
+      </c>
+      <c r="F54" s="3">
         <v>1193100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1136700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1080700</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2445,14 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2466,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,26 +2483,28 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>41900</v>
+      </c>
+      <c r="F57" s="3">
         <v>45700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>46600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>36100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,32 +2514,38 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F58" s="3">
         <v>7900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>5500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>5500</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2294,26 +2561,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>48600</v>
+      </c>
+      <c r="F59" s="3">
         <v>38200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>49400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>56500</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2329,26 +2602,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>90800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>96800</v>
+      </c>
+      <c r="F60" s="3">
         <v>91800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>101600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>98200</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,26 +2643,32 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>636800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>636300</v>
+      </c>
+      <c r="F61" s="3">
         <v>637700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>570400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>670100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2399,26 +2684,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>148800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>176100</v>
+      </c>
+      <c r="F62" s="3">
         <v>159100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>144900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>74000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,14 +2719,20 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2766,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2807,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,26 +2848,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>876400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>909200</v>
+      </c>
+      <c r="F66" s="3">
         <v>888600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>816900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>842300</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,8 +2889,14 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2910,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2947,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2988,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2694,8 +3029,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,26 +3070,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-25000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-7000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>100</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2764,8 +3111,14 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +3152,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3193,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,26 +3234,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>384400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>339400</v>
+      </c>
+      <c r="F76" s="3">
         <v>304500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>319800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>238400</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2904,8 +3275,14 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,83 +3316,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44654</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44283</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44101</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-18000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-30200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>13500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>4900</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,43 +3424,51 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F83" s="3">
         <v>7800</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3">
         <v>5600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>4800</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>4700</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3502,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3543,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3584,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3625,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,43 +3666,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3300</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
         <v>19000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>12800</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>17600</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,43 +3728,51 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4800</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
         <v>-3100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2800</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3806,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,43 +3847,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-62200</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
         <v>-3100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-158900</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1300</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3909,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3479,8 +3946,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3987,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +4028,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,66 +4069,78 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F100" s="3">
         <v>47900</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>163000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>27500</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3654,39 +4151,51 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-17600</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
         <v>15800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>16900</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>43800</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
   <si>
     <t>HLLY</t>
   </si>
@@ -667,8 +667,9 @@
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
@@ -701,13 +702,13 @@
         <v>44465</v>
       </c>
       <c r="H7" s="2">
+        <v>44374</v>
+      </c>
+      <c r="I7" s="2">
         <v>44283</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
-      </c>
-      <c r="J7" s="2">
-        <v>44101</v>
       </c>
       <c r="K7" s="2">
         <v>43918</v>
@@ -742,13 +743,13 @@
         <v>159700</v>
       </c>
       <c r="H8" s="3">
+        <v>193000</v>
+      </c>
+      <c r="I8" s="3">
         <v>160300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>138400</v>
-      </c>
-      <c r="J8" s="3">
-        <v>133300</v>
       </c>
       <c r="K8" s="3">
         <v>107200</v>
@@ -783,13 +784,13 @@
         <v>94500</v>
       </c>
       <c r="H9" s="3">
+        <v>111800</v>
+      </c>
+      <c r="I9" s="3">
         <v>94700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>83900</v>
-      </c>
-      <c r="J9" s="3">
-        <v>77800</v>
       </c>
       <c r="K9" s="3">
         <v>63800</v>
@@ -824,13 +825,13 @@
         <v>65200</v>
       </c>
       <c r="H10" s="3">
+        <v>81200</v>
+      </c>
+      <c r="I10" s="3">
         <v>65600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>54500</v>
-      </c>
-      <c r="J10" s="3">
-        <v>55500</v>
       </c>
       <c r="K10" s="3">
         <v>43400</v>
@@ -882,13 +883,13 @@
         <v>7100</v>
       </c>
       <c r="H12" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I12" s="3">
         <v>6000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6300</v>
-      </c>
-      <c r="J12" s="3">
-        <v>6000</v>
       </c>
       <c r="K12" s="3">
         <v>5600</v>
@@ -964,13 +965,13 @@
         <v>25000</v>
       </c>
       <c r="H14" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I14" s="3">
         <v>19700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7500</v>
-      </c>
-      <c r="J14" s="3">
-        <v>2000</v>
       </c>
       <c r="K14" s="3">
         <v>2300</v>
@@ -1005,13 +1006,13 @@
         <v>3600</v>
       </c>
       <c r="H15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I15" s="3">
         <v>3300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2700</v>
       </c>
       <c r="K15" s="3">
         <v>2700</v>
@@ -1060,13 +1061,13 @@
         <v>159200</v>
       </c>
       <c r="H17" s="3">
+        <v>153000</v>
+      </c>
+      <c r="I17" s="3">
         <v>147600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>125400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>104900</v>
       </c>
       <c r="K17" s="3">
         <v>89500</v>
@@ -1101,13 +1102,13 @@
         <v>500</v>
       </c>
       <c r="H18" s="3">
+        <v>40000</v>
+      </c>
+      <c r="I18" s="3">
         <v>12700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>13000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>28400</v>
       </c>
       <c r="K18" s="3">
         <v>17700</v>
@@ -1196,17 +1197,17 @@
       <c r="F21" s="3">
         <v>1000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+      <c r="G21" s="3">
+        <v>-17200</v>
       </c>
       <c r="H21" s="3">
+        <v>45800</v>
+      </c>
+      <c r="I21" s="3">
         <v>18400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>17900</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K21" s="3">
         <v>22400</v>
@@ -1241,13 +1242,13 @@
         <v>9900</v>
       </c>
       <c r="H22" s="3">
+        <v>11200</v>
+      </c>
+      <c r="I22" s="3">
         <v>10100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>11900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>9300</v>
       </c>
       <c r="K22" s="3">
         <v>11500</v>
@@ -1282,13 +1283,13 @@
         <v>-33500</v>
       </c>
       <c r="H23" s="3">
+        <v>28900</v>
+      </c>
+      <c r="I23" s="3">
         <v>2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>19100</v>
       </c>
       <c r="K23" s="3">
         <v>6200</v>
@@ -1323,13 +1324,13 @@
         <v>-3300</v>
       </c>
       <c r="H24" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I24" s="3">
         <v>4800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-800</v>
-      </c>
-      <c r="J24" s="3">
-        <v>5500</v>
       </c>
       <c r="K24" s="3">
         <v>1300</v>
@@ -1405,13 +1406,13 @@
         <v>-30200</v>
       </c>
       <c r="H26" s="3">
+        <v>23100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>13500</v>
       </c>
       <c r="K26" s="3">
         <v>4900</v>
@@ -1446,13 +1447,13 @@
         <v>-30200</v>
       </c>
       <c r="H27" s="3">
+        <v>23100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>13500</v>
       </c>
       <c r="K27" s="3">
         <v>4900</v>
@@ -1692,13 +1693,13 @@
         <v>-30200</v>
       </c>
       <c r="H33" s="3">
+        <v>23100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>13500</v>
       </c>
       <c r="K33" s="3">
         <v>4900</v>
@@ -1774,13 +1775,13 @@
         <v>-30200</v>
       </c>
       <c r="H35" s="3">
+        <v>23100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>13500</v>
       </c>
       <c r="K35" s="3">
         <v>4900</v>
@@ -1820,13 +1821,13 @@
         <v>44465</v>
       </c>
       <c r="H38" s="2">
+        <v>44374</v>
+      </c>
+      <c r="I38" s="2">
         <v>44283</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
-      </c>
-      <c r="J38" s="2">
-        <v>44101</v>
       </c>
       <c r="K38" s="2">
         <v>43918</v>
@@ -1894,8 +1895,8 @@
       <c r="G41" s="3">
         <v>53900</v>
       </c>
-      <c r="H41" s="3">
-        <v>87500</v>
+      <c r="H41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1976,8 +1977,8 @@
       <c r="G43" s="3">
         <v>55400</v>
       </c>
-      <c r="H43" s="3">
-        <v>55300</v>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -2017,8 +2018,8 @@
       <c r="G44" s="3">
         <v>164300</v>
       </c>
-      <c r="H44" s="3">
-        <v>126200</v>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -2058,8 +2059,8 @@
       <c r="G45" s="3">
         <v>8900</v>
       </c>
-      <c r="H45" s="3">
-        <v>6900</v>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -2099,8 +2100,8 @@
       <c r="G46" s="3">
         <v>282600</v>
       </c>
-      <c r="H46" s="3">
-        <v>275800</v>
+      <c r="H46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -2181,8 +2182,8 @@
       <c r="G48" s="3">
         <v>50400</v>
       </c>
-      <c r="H48" s="3">
-        <v>44600</v>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2222,8 +2223,8 @@
       <c r="G49" s="3">
         <v>803700</v>
       </c>
-      <c r="H49" s="3">
-        <v>760300</v>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2427,8 +2428,8 @@
       <c r="G54" s="3">
         <v>1136700</v>
       </c>
-      <c r="H54" s="3">
-        <v>1080700</v>
+      <c r="H54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2502,8 +2503,8 @@
       <c r="G57" s="3">
         <v>46600</v>
       </c>
-      <c r="H57" s="3">
-        <v>36100</v>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2543,8 +2544,8 @@
       <c r="G58" s="3">
         <v>5500</v>
       </c>
-      <c r="H58" s="3">
-        <v>5500</v>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2584,8 +2585,8 @@
       <c r="G59" s="3">
         <v>49400</v>
       </c>
-      <c r="H59" s="3">
-        <v>56500</v>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2625,8 +2626,8 @@
       <c r="G60" s="3">
         <v>101600</v>
       </c>
-      <c r="H60" s="3">
-        <v>98200</v>
+      <c r="H60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2667,7 +2668,7 @@
         <v>570400</v>
       </c>
       <c r="H61" s="3">
-        <v>670100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2707,8 +2708,8 @@
       <c r="G62" s="3">
         <v>144900</v>
       </c>
-      <c r="H62" s="3">
-        <v>74000</v>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2871,8 +2872,8 @@
       <c r="G66" s="3">
         <v>816900</v>
       </c>
-      <c r="H66" s="3">
-        <v>842300</v>
+      <c r="H66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -3093,8 +3094,8 @@
       <c r="G72" s="3">
         <v>-7000</v>
       </c>
-      <c r="H72" s="3">
-        <v>100</v>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -3257,8 +3258,8 @@
       <c r="G76" s="3">
         <v>319800</v>
       </c>
-      <c r="H76" s="3">
-        <v>238400</v>
+      <c r="H76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3345,13 +3346,13 @@
         <v>44465</v>
       </c>
       <c r="H80" s="2">
+        <v>44374</v>
+      </c>
+      <c r="I80" s="2">
         <v>44283</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
-      </c>
-      <c r="J80" s="2">
-        <v>44101</v>
       </c>
       <c r="K80" s="2">
         <v>43918</v>
@@ -3386,13 +3387,13 @@
         <v>-30200</v>
       </c>
       <c r="H81" s="3">
+        <v>23100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>13500</v>
       </c>
       <c r="K81" s="3">
         <v>4900</v>
@@ -3440,17 +3441,17 @@
       <c r="F83" s="3">
         <v>7800</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>6400</v>
       </c>
       <c r="H83" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I83" s="3">
         <v>5600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4800</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>4700</v>
@@ -3686,17 +3687,17 @@
       <c r="F89" s="3">
         <v>-3300</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3">
+        <v>-21500</v>
       </c>
       <c r="H89" s="3">
+        <v>27400</v>
+      </c>
+      <c r="I89" s="3">
         <v>19000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12800</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K89" s="3">
         <v>17600</v>
@@ -3744,17 +3745,17 @@
       <c r="F91" s="3">
         <v>-4800</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>-3300</v>
       </c>
       <c r="H91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2800</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>-1300</v>
@@ -3867,17 +3868,17 @@
       <c r="F94" s="3">
         <v>-62200</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>-11100</v>
       </c>
       <c r="H94" s="3">
+        <v>-57800</v>
+      </c>
+      <c r="I94" s="3">
         <v>-3100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-158900</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>-1300</v>
@@ -4089,17 +4090,17 @@
       <c r="F100" s="3">
         <v>47900</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>30800</v>
       </c>
       <c r="H100" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>163000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K100" s="3">
         <v>27500</v>
@@ -4171,17 +4172,17 @@
       <c r="F102" s="3">
         <v>-17600</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+      <c r="G102" s="3">
+        <v>-1700</v>
       </c>
       <c r="H102" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="I102" s="3">
         <v>15800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16900</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K102" s="3">
         <v>43800</v>

--- a/AAII_Financials/Quarterly/HLLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLLY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,57 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E7" s="2">
         <v>44745</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44654</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44374</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44283</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,79 +725,85 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>154800</v>
+      </c>
+      <c r="E8" s="3">
         <v>179400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>179800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>159700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>193000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>160300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>138400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>107200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>106400</v>
+      </c>
+      <c r="E9" s="3">
         <v>104100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>117300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>105100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>94500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>111800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>94700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>83900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>63800</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,38 +813,41 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E10" s="3">
         <v>75300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>82800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>74700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>65200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>81200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>65600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>54500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>43400</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,8 +857,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,38 +877,39 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>8200</v>
+        <v>6000</v>
       </c>
       <c r="E12" s="3">
         <v>8200</v>
       </c>
       <c r="F12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G12" s="3">
         <v>8100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>7100</v>
       </c>
       <c r="H12" s="3">
         <v>7100</v>
       </c>
       <c r="I12" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J12" s="3">
         <v>6000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5600</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,8 +919,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,38 +963,41 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E14" s="3">
         <v>1700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>14000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>25000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>19700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -988,8 +1007,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1000,37 +1022,40 @@
         <v>3700</v>
       </c>
       <c r="F15" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="G15" s="3">
         <v>3600</v>
       </c>
       <c r="H15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I15" s="3">
         <v>3500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2700</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,38 +1068,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>151700</v>
+      </c>
+      <c r="E17" s="3">
         <v>154300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>164000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>169300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>159200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>153000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>147600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>125400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>89500</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,38 +1110,41 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E18" s="3">
         <v>25100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>36100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>40000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1154,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,26 +1174,27 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E20" s="3">
         <v>27400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-17300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-24200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1171,8 +1204,8 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1183,38 +1216,41 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E21" s="3">
         <v>58700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>37200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-17200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>45800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>18400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>17900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>22400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,79 +1260,85 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E22" s="3">
         <v>9000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>11200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>11900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11500</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E23" s="3">
         <v>43600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>24000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-33500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>28900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6200</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,49 +1348,55 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>3000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,38 +1436,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E26" s="3">
         <v>40600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-30200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>23100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4900</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,38 +1480,41 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E27" s="3">
         <v>40600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-30200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>23100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4900</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1524,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1568,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1612,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1656,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,26 +1700,29 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-27400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>17300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>24200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1663,8 +1732,8 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1675,38 +1744,41 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E33" s="3">
         <v>40600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-30200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>23100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1788,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,38 +1832,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E35" s="3">
         <v>40600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-30200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>23100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,43 +1876,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E38" s="2">
         <v>44745</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44654</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44374</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44283</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1925,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1945,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,26 +1963,27 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E41" s="3">
         <v>30600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>36300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>53900</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,8 +2005,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,26 +2049,29 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E43" s="3">
         <v>58200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>63700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>51400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>55400</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1995,32 +2087,35 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>230500</v>
+      </c>
+      <c r="E44" s="3">
         <v>214900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>191100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>185000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>164300</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2036,32 +2131,35 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E45" s="3">
         <v>16900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8900</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,26 +2181,29 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>325300</v>
+      </c>
+      <c r="E46" s="3">
         <v>320500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>314300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>291700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>282600</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2225,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2156,8 +2260,8 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
@@ -2165,26 +2269,29 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E48" s="3">
         <v>88800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>88000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>51500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>50400</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2200,32 +2307,35 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>845700</v>
+      </c>
+      <c r="E49" s="3">
         <v>851500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>846400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>849800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>803700</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2241,14 +2351,17 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2401,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,8 +2445,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2370,8 +2489,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,26 +2533,29 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1257100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1260800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1248700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1193100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1136700</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2577,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2597,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,26 +2615,27 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E57" s="3">
         <v>39600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>41900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>45700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>46600</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2521,32 +2651,35 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="E58" s="3">
         <v>6300</v>
       </c>
       <c r="F58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G58" s="3">
         <v>7900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5500</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2568,26 +2701,29 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E59" s="3">
         <v>44900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>48600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>38200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>49400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,26 +2745,29 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>96400</v>
+      </c>
+      <c r="E60" s="3">
         <v>90800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>96800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>91800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>101600</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,26 +2789,29 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>635600</v>
+      </c>
+      <c r="E61" s="3">
         <v>636800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>636300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>637700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>570400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2691,26 +2833,29 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>106800</v>
+      </c>
+      <c r="E62" s="3">
         <v>148800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>176100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>159100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>144900</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2726,14 +2871,17 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2921,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2965,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,26 +3009,29 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>838800</v>
+      </c>
+      <c r="E66" s="3">
         <v>876400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>909200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>888600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>816900</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3053,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3073,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3115,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3159,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3203,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,26 +3247,29 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E72" s="3">
         <v>32400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-25000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3291,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3335,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3379,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,26 +3423,29 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>418300</v>
+      </c>
+      <c r="E76" s="3">
         <v>384400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>339400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>304500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>319800</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3467,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,43 +3511,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E80" s="2">
         <v>44745</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44654</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44374</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44283</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,38 +3560,41 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E81" s="3">
         <v>40600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-30200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>23100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3604,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,40 +3624,41 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E83" s="3">
         <v>6200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4700</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3468,8 +3666,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3710,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3754,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3798,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3842,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,38 +3886,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E89" s="3">
         <v>2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>18300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-21500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>27400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>19000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>17600</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +3930,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,40 +3950,41 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3772,8 +3992,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4036,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,40 +4080,43 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-62200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-57800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-158900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -3895,8 +4124,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4144,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4186,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4230,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4274,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,38 +4318,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>47900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>30800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>163000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>27500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,20 +4362,23 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4143,8 +4391,8 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -4158,38 +4406,41 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-31800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>15800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>43800</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4448,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLLY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,203 +665,229 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44836</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44745</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44654</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44374</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44283</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>172200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>154200</v>
+      </c>
+      <c r="F8" s="3">
         <v>154800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>179400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>200100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>179800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>159700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>193000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>160300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>138400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>107200</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>104500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>106900</v>
+      </c>
+      <c r="F9" s="3">
         <v>106400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>104100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>117300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>105100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>94500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>111800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>94700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>83900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>63800</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>67700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>47300</v>
+      </c>
+      <c r="F10" s="3">
         <v>48400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>75300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>82800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>74700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>65200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>81200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>65600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>54500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>43400</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,52 +904,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F12" s="3">
         <v>6000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>8200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>8200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>8100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>7100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>7100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>6000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>6300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>5600</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,52 +1000,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F14" s="3">
         <v>3700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>1700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>14000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>25000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>4300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>19700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>7500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>2300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1025,37 +1071,43 @@
         <v>3700</v>
       </c>
       <c r="G15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I15" s="3">
         <v>3600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>3600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>3500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>3300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>3000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>2700</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,96 +1121,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>146200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>167700</v>
+      </c>
+      <c r="F17" s="3">
         <v>151700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>154300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>164000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>169300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>159200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>153000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>147600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>125400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>89500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="F18" s="3">
         <v>3100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>25100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>36100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>10500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>40000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>12700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>13000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>17700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,43 +1241,45 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F20" s="3">
         <v>37600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>27400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-4700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-17300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-24200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1219,184 +1287,214 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
         <v>47200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>58700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>37200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-17200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>45800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>18400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>17900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>22400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F22" s="3">
         <v>10400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>9000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>7400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>8000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>9900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>11200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>10100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>11900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>11500</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="F23" s="3">
         <v>30200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>43600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>24000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-14800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-33500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>28900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>6200</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>3000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>7200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>3200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-3300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>5800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,96 +1537,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="F26" s="3">
         <v>31600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>40600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>16900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-18000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-30200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>23100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>4900</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="F27" s="3">
         <v>31600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>40600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>16900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-18000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-30200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>23100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>4900</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1687,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1737,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1787,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,43 +1837,49 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-37600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-27400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>4700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>17300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>24200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1747,52 +1887,64 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="F33" s="3">
         <v>31600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>40600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>16900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-18000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-30200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>23100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>4900</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,101 +1987,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="F35" s="3">
         <v>31600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>40600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>16900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-18000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-30200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>23100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>4900</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44836</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44745</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44654</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44374</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44283</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2116,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,32 +2136,34 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F41" s="3">
         <v>16600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>30600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>44100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>36300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>53900</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2008,8 +2182,14 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2052,32 +2232,38 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>47100</v>
+      </c>
+      <c r="F43" s="3">
         <v>59700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>58200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>63700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>51400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>55400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2090,38 +2276,44 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>233600</v>
+      </c>
+      <c r="F44" s="3">
         <v>230500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>214900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>191100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>185000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>164300</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2134,38 +2326,44 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F45" s="3">
         <v>18500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>16900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>15400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>19000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>8900</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,32 +2382,38 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>324200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>325000</v>
+      </c>
+      <c r="F46" s="3">
         <v>325300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>320500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>314300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>291700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>282600</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2228,8 +2432,14 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2263,41 +2473,47 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>81700</v>
+      </c>
+      <c r="F48" s="3">
         <v>86000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>88800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>88000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>51500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>50400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2310,38 +2526,44 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>839400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>843000</v>
+      </c>
+      <c r="F49" s="3">
         <v>845700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>851500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>846400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>849800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>803700</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2354,14 +2576,20 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2632,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,8 +2682,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2492,8 +2732,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,32 +2782,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1242300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1249600</v>
+      </c>
+      <c r="F54" s="3">
         <v>1257100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1260800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1248700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1193100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1136700</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2832,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2856,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,32 +2876,34 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>44900</v>
+      </c>
+      <c r="F57" s="3">
         <v>43500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>39600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>41900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>45700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>46600</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2654,38 +2916,44 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F58" s="3">
         <v>6000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>6300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>6300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>7900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>5500</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,32 +2972,38 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>49300</v>
+      </c>
+      <c r="F59" s="3">
         <v>46900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>44900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>48600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>38200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>49400</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2748,32 +3022,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>95600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>101300</v>
+      </c>
+      <c r="F60" s="3">
         <v>96400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>90800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>96800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>91800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>101600</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,32 +3072,38 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>636200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>643600</v>
+      </c>
+      <c r="F61" s="3">
         <v>635600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>636800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>636300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>637700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>570400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2836,32 +3122,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>88800</v>
+      </c>
+      <c r="F62" s="3">
         <v>106800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>148800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>176100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>159100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>144900</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2874,14 +3166,20 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3222,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3272,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,32 +3322,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>821900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>833700</v>
+      </c>
+      <c r="F66" s="3">
         <v>838800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>876400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>909200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>888600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>816900</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3372,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3396,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3442,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3492,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3542,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,32 +3592,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>48800</v>
+      </c>
+      <c r="F72" s="3">
         <v>64000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>32400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-25000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-7000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3294,8 +3642,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3692,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3742,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,32 +3792,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>420400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>416000</v>
+      </c>
+      <c r="F76" s="3">
         <v>418300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>384400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>339400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>304500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>319800</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3842,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,101 +3892,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44836</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44745</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44654</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44374</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44283</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="F81" s="3">
         <v>31600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>40600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>16900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-18000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-30200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>23100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>4900</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,52 +4021,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F83" s="3">
         <v>6500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>6200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>5800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>7800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>6400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>5700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>5600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>4800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>4700</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +4117,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +4167,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4217,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4267,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,52 +4317,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-8700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>18300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-21500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>27400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>19000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>12800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>17600</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,52 +4391,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-5700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-4800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-4000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4487,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,52 +4537,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-16200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-7200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-62200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-11100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-57800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-158900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4611,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4657,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4707,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4757,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,70 +4807,82 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-3300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>47900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>30800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>163000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>27500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>800</v>
+      </c>
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4394,11 +4892,11 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4409,48 +4907,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-13900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-13500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>7800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-17600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-31800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>15800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>16900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>43800</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
   <si>
     <t>HLLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,68 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E7" s="2">
         <v>45018</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44836</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44745</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44654</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44374</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44283</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,97 +736,103 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>175300</v>
+      </c>
+      <c r="E8" s="3">
         <v>172200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>154200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>154800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>179400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>179800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>159700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>193000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>160300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>138400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>107200</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>105500</v>
+      </c>
+      <c r="E9" s="3">
         <v>104500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>106900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>106400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>104100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>117300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>105100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>94500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>111800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>94700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>83900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>63800</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,47 +842,50 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E10" s="3">
         <v>67700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>47300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>48400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>75300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>82800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>74700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>65200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>81200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>65600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>54500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>43400</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -886,8 +895,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,47 +918,48 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>6700</v>
+        <v>6200</v>
       </c>
       <c r="E12" s="3">
         <v>6700</v>
       </c>
       <c r="F12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G12" s="3">
         <v>6000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>8200</v>
       </c>
       <c r="H12" s="3">
         <v>8200</v>
       </c>
       <c r="I12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J12" s="3">
         <v>8100</v>
-      </c>
-      <c r="J12" s="3">
-        <v>7100</v>
       </c>
       <c r="K12" s="3">
         <v>7100</v>
       </c>
       <c r="L12" s="3">
+        <v>7100</v>
+      </c>
+      <c r="M12" s="3">
         <v>6000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5600</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,8 +969,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,47 +1022,50 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="E14" s="3">
         <v>1300</v>
       </c>
       <c r="F14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G14" s="3">
         <v>3700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>14000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>25000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>19700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1056,8 +1075,11 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1077,37 +1099,40 @@
         <v>3700</v>
       </c>
       <c r="I15" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="J15" s="3">
         <v>3600</v>
       </c>
       <c r="K15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L15" s="3">
         <v>3500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2700</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,47 +1148,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>145300</v>
+      </c>
+      <c r="E17" s="3">
         <v>146200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>167700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>151700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>154300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>164000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>169300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>159200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>153000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>147600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>125400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>89500</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,47 +1199,50 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E18" s="3">
         <v>26000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>25100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>36100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>40000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17700</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1252,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,35 +1275,36 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>37600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>27400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-17300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-24200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1281,8 +1314,8 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1293,47 +1326,50 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E21" s="3">
         <v>30300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>47200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>58700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>37200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-17200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>45800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>18400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>22400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,97 +1379,103 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E22" s="3">
         <v>18300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>13400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11500</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E23" s="3">
         <v>5800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>30200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>43600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>24000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-33500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>28900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6200</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,58 +1485,64 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1300</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,47 +1591,50 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>31600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>40600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-30200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>23100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4900</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1593,47 +1644,50 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>31600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>40600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-30200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>23100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4900</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1697,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1750,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1803,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1856,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,35 +1909,38 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-37600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-27400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>17300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>24200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1881,8 +1950,8 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1893,47 +1962,50 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>31600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>40600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-30200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>23100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4900</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2015,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,47 +2068,50 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>31600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>40600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-30200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>23100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4900</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,52 +2121,55 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E38" s="2">
         <v>45018</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44836</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44745</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44654</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44374</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44283</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2179,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2202,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,35 +2223,36 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E41" s="3">
         <v>20800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>26200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>44100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>36300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>53900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,8 +2274,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2238,35 +2327,38 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E43" s="3">
         <v>56300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>47100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>59700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>58200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>63700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>51400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>55400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2282,41 +2374,44 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>217500</v>
+      </c>
+      <c r="E44" s="3">
         <v>229000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>233600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>230500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>214900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>191100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>185000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>164300</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,41 +2427,44 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E45" s="3">
         <v>18000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8900</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,35 +2486,38 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>333300</v>
+      </c>
+      <c r="E46" s="3">
         <v>324200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>325000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>325300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>320500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>314300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>291700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>282600</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,8 +2539,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2479,8 +2583,8 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
@@ -2488,8 +2592,11 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2497,26 +2604,26 @@
         <v>78700</v>
       </c>
       <c r="E48" s="3">
+        <v>78700</v>
+      </c>
+      <c r="F48" s="3">
         <v>81700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>86000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>88800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>88000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>51500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>50400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2532,41 +2639,44 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>836700</v>
+      </c>
+      <c r="E49" s="3">
         <v>839400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>843000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>845700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>851500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>846400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>849800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>803700</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,14 +2692,17 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2751,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,31 +2804,34 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>2100</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2738,8 +2857,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,35 +2910,38 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1250700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1242300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1249600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1257100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1260800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1248700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1193100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1136700</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +2963,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2986,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,35 +3007,36 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E57" s="3">
         <v>37400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>44900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>43500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>39600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>41900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>45700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>46600</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2922,14 +3052,17 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2937,26 +3070,26 @@
         <v>6600</v>
       </c>
       <c r="E58" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F58" s="3">
         <v>7000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>6300</v>
       </c>
       <c r="H58" s="3">
         <v>6300</v>
       </c>
       <c r="I58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J58" s="3">
         <v>7900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2978,35 +3111,38 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E59" s="3">
         <v>51600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>46900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>44900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>48600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>38200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>49400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,35 +3164,38 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>103200</v>
+      </c>
+      <c r="E60" s="3">
         <v>95600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>101300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>96400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>90800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>96800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>91800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>101600</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3078,35 +3217,38 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>629400</v>
+      </c>
+      <c r="E61" s="3">
         <v>636200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>643600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>635600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>636800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>636300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>637700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>570400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3128,35 +3270,38 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E62" s="3">
         <v>90200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>88800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>106800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>148800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>176100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>159100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>144900</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3172,14 +3317,17 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3376,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3429,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,35 +3482,38 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>815300</v>
+      </c>
+      <c r="E66" s="3">
         <v>821900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>833700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>838800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>876400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>909200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>888600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>816900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3535,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3558,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3609,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3662,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,8 +3715,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,35 +3768,38 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E72" s="3">
         <v>53000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>48800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>64000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>32400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-25000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3821,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3874,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3927,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,35 +3980,38 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>435400</v>
+      </c>
+      <c r="E76" s="3">
         <v>420400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>416000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>418300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>384400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>339400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>304500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>319800</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4033,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,52 +4086,55 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E80" s="2">
         <v>45018</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44836</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44745</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44654</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44374</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44283</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,47 +4144,50 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>31600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>40600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-30200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>23100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4900</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4197,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,49 +4220,50 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E83" s="3">
         <v>6200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4700</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4073,8 +4271,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4324,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4377,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4430,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4483,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,47 +4536,50 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E89" s="3">
         <v>3600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>18300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-21500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>27400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>19000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>17600</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4373,8 +4589,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,49 +4612,50 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4443,8 +4663,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4716,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,49 +4769,52 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-62200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-57800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-158900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4593,8 +4822,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4845,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4896,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4949,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5002,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,47 +5055,50 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>47900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>30800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>163000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>27500</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4863,29 +5108,32 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4898,8 +5146,8 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -4913,47 +5161,50 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-17600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-31800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>43800</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4961,6 +5212,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLLY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,71 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E7" s="2">
         <v>45109</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45018</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44836</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44745</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44654</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44374</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44283</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -739,103 +739,109 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>156500</v>
+      </c>
+      <c r="E8" s="3">
         <v>175300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>172200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>154200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>154800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>179400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>179800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>159700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>193000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>160300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>138400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>107200</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>98200</v>
+      </c>
+      <c r="E9" s="3">
         <v>105500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>104500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>106900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>106400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>104100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>117300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>105100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>94500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>111800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>94700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>83900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>63800</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
@@ -845,50 +851,53 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E10" s="3">
         <v>69800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>67700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>47300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>48400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>75300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>82800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>74700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>65200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>81200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>65600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>54500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>43400</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -898,8 +907,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -919,50 +931,51 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E12" s="3">
         <v>6200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>6700</v>
       </c>
       <c r="F12" s="3">
         <v>6700</v>
       </c>
       <c r="G12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H12" s="3">
         <v>6000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>8200</v>
       </c>
       <c r="I12" s="3">
         <v>8200</v>
       </c>
       <c r="J12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K12" s="3">
         <v>8100</v>
-      </c>
-      <c r="K12" s="3">
-        <v>7100</v>
       </c>
       <c r="L12" s="3">
         <v>7100</v>
       </c>
       <c r="M12" s="3">
+        <v>7100</v>
+      </c>
+      <c r="N12" s="3">
         <v>6000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5600</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -972,8 +985,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1025,8 +1041,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1034,41 +1053,41 @@
         <v>400</v>
       </c>
       <c r="E14" s="3">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="F14" s="3">
         <v>1300</v>
       </c>
       <c r="G14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H14" s="3">
         <v>3700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>14000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>25000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>19700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2300</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1078,8 +1097,11 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1102,37 +1124,40 @@
         <v>3700</v>
       </c>
       <c r="J15" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="K15" s="3">
         <v>3600</v>
       </c>
       <c r="L15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M15" s="3">
         <v>3500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2700</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1149,50 +1174,51 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>137200</v>
+      </c>
+      <c r="E17" s="3">
         <v>145300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>146200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>167700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>151700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>154300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>164000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>169300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>159200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>153000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>147600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>125400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>89500</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1202,50 +1228,53 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E18" s="3">
         <v>30000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>26000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>25100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>36100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>40000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>17700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1255,8 +1284,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1276,38 +1308,39 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>37600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>27400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-17300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-24200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1317,8 +1350,8 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1329,50 +1362,53 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E21" s="3">
         <v>33100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>30300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>47200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>58700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>37200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-17200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>45800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>18400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>17900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>22400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1382,103 +1418,109 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E22" s="3">
         <v>9900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>18300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>13400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11500</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E23" s="3">
         <v>17100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>30200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>43600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>24000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-33500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>28900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6200</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1488,61 +1530,67 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E24" s="3">
         <v>4100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1300</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1594,50 +1642,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>800</v>
+      </c>
+      <c r="E26" s="3">
         <v>13000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>31600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>40600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-30200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>23100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4900</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,50 +1698,53 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
         <v>13000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>31600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>40600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-30200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>23100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4900</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1700,8 +1754,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1753,8 +1810,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1806,8 +1866,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1859,8 +1922,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1912,38 +1978,41 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E32" s="3">
         <v>3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-37600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-27400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>17300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>24200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1953,8 +2022,8 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1965,50 +2034,53 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>800</v>
+      </c>
+      <c r="E33" s="3">
         <v>13000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>31600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>40600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-30200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>23100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4900</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2018,8 +2090,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2071,50 +2146,53 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>800</v>
+      </c>
+      <c r="E35" s="3">
         <v>13000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>31600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>40600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-30200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>23100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4900</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,55 +2202,58 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E38" s="2">
         <v>45109</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45018</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44836</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44745</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44654</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44374</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44283</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2182,8 +2263,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2203,8 +2287,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2224,38 +2309,39 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E41" s="3">
         <v>42700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>26200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>30600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>44100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>36300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>53900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2277,8 +2363,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2330,38 +2419,41 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E43" s="3">
         <v>57100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>56300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>47100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>59700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>58200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>63700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>51400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>55400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2377,44 +2469,47 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>207200</v>
+      </c>
+      <c r="E44" s="3">
         <v>217500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>229000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>233600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>230500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>214900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>191100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>185000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>164300</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,44 +2525,47 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E45" s="3">
         <v>16000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8900</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2489,38 +2587,41 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>304700</v>
+      </c>
+      <c r="E46" s="3">
         <v>333300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>324200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>325000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>325300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>320500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>314300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>291700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>282600</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2542,8 +2643,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2586,8 +2690,8 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
@@ -2595,38 +2699,41 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>78700</v>
+        <v>78400</v>
       </c>
       <c r="E48" s="3">
         <v>78700</v>
       </c>
       <c r="F48" s="3">
+        <v>78700</v>
+      </c>
+      <c r="G48" s="3">
         <v>81700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>86000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>88800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>88000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>51500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>50400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2642,44 +2749,47 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>832800</v>
+      </c>
+      <c r="E49" s="3">
         <v>836700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>839400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>843000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>845700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>851500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>846400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>849800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>803700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2695,14 +2805,17 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2754,8 +2867,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2807,17 +2923,20 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,8 +2952,8 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2860,8 +2979,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2913,38 +3035,41 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1219100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1250700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1242300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1249600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1257100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1260800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1248700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1193100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1136700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2966,8 +3091,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2987,8 +3115,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3008,38 +3137,39 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E57" s="3">
         <v>43800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>37400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>44900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>43500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>39600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>41900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>45700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>46600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3055,14 +3185,17 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,26 +3206,26 @@
         <v>6600</v>
       </c>
       <c r="F58" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G58" s="3">
         <v>7000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>6300</v>
       </c>
       <c r="I58" s="3">
         <v>6300</v>
       </c>
       <c r="J58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K58" s="3">
         <v>7900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3114,38 +3247,41 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E59" s="3">
         <v>52900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>51600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>49300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>46900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>44900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>48600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>38200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>49400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3167,38 +3303,41 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E60" s="3">
         <v>103200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>95600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>101300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>96400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>90800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>96800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>91800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>101600</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,38 +3359,41 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>603500</v>
+      </c>
+      <c r="E61" s="3">
         <v>629400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>636200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>643600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>635600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>636800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>636300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>637700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>570400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3273,38 +3415,41 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E62" s="3">
         <v>82600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>90200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>88800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>106800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>148800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>176100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>159100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>144900</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3320,14 +3465,17 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3379,8 +3527,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3432,8 +3583,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3485,38 +3639,41 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>781200</v>
+      </c>
+      <c r="E66" s="3">
         <v>815300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>821900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>833700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>838800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>876400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>909200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>888600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>816900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3538,8 +3695,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3559,8 +3719,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3612,8 +3773,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3665,8 +3829,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3718,8 +3885,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3771,38 +3941,41 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>66800</v>
+      </c>
+      <c r="E72" s="3">
         <v>66000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>53000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>48800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>64000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>32400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-25000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3824,8 +3997,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3877,8 +4053,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3930,8 +4109,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3983,38 +4165,41 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>437900</v>
+      </c>
+      <c r="E76" s="3">
         <v>435400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>420400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>416000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>418300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>384400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>339400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>304500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>319800</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4036,8 +4221,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4089,55 +4277,58 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E80" s="2">
         <v>45109</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45018</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44836</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44745</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44654</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44374</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44283</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4147,50 +4338,53 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>800</v>
+      </c>
+      <c r="E81" s="3">
         <v>13000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>31600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>40600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-30200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>23100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4900</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4200,8 +4394,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4221,52 +4418,53 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E83" s="3">
         <v>6100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4700</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4274,8 +4472,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4327,8 +4528,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4380,8 +4584,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4433,8 +4640,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4486,8 +4696,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4539,50 +4752,53 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E89" s="3">
         <v>30700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>18300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-21500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>27400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>19000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>17600</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4592,8 +4808,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4613,8 +4832,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4622,43 +4842,43 @@
         <v>-1700</v>
       </c>
       <c r="E91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4666,8 +4886,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4719,8 +4942,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4772,52 +4998,55 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-62200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-57800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-158900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -4825,8 +5054,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4846,8 +5078,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4899,8 +5132,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4952,8 +5188,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5005,8 +5244,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5058,50 +5300,53 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>47900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>30800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>163000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>27500</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5111,32 +5356,35 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5149,8 +5397,8 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -5164,50 +5412,53 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E102" s="3">
         <v>21900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-17600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-31800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>15800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>16900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>43800</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5215,6 +5466,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
